--- a/heliostrome/jip_project/results/test_results.xlsx
+++ b/heliostrome/jip_project/results/test_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Input Parameters"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="59">
   <si>
     <t>Case Study</t>
   </si>
@@ -38,12 +38,54 @@
     <t>Seasonal irrigation (mm)</t>
   </si>
   <si>
-    <t>Gazipur - Summer Tomato</t>
+    <t>Summer Tomato - Furrow (Gazipur)</t>
   </si>
   <si>
     <t>Tomato</t>
   </si>
   <si>
+    <t>Summer Tomato - Drip (Gazipur)</t>
+  </si>
+  <si>
+    <t>Winter Tomato - Drip (Gazipur)</t>
+  </si>
+  <si>
+    <t>Winter Tomato - Furrow (Gazipur)</t>
+  </si>
+  <si>
+    <t>Winter Tomato - Drip (Jamalpur)</t>
+  </si>
+  <si>
+    <t>Winter Tomato - Furrow (Jamalpur)</t>
+  </si>
+  <si>
+    <t>Brinjal - Drip (Jamalpur)</t>
+  </si>
+  <si>
+    <t>Brinjal - Furrow (Jamalpur)</t>
+  </si>
+  <si>
+    <t>Brinjal - Drip (Gazipur)</t>
+  </si>
+  <si>
+    <t>Brinjal - Furrow (Gazipur)</t>
+  </si>
+  <si>
+    <t>Wheat (Gazipur)</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Rice (Magura)</t>
+  </si>
+  <si>
+    <t>PaddyRice</t>
+  </si>
+  <si>
+    <t>Rice (Barisal)</t>
+  </si>
+  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -74,6 +116,15 @@
     <t>Init WC - WC Type</t>
   </si>
   <si>
+    <t>init WC - Value</t>
+  </si>
+  <si>
+    <t>Yield (Ton/HA)</t>
+  </si>
+  <si>
+    <t>Water Used (mm)</t>
+  </si>
+  <si>
     <t>Init WC - Value</t>
   </si>
   <si>
@@ -89,7 +140,58 @@
     <t>Pct</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>12/04</t>
+  </si>
+  <si>
+    <t>SandyLoam</t>
+  </si>
+  <si>
+    <t>11/04</t>
+  </si>
+  <si>
+    <t>[33, 33, 33, 33]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>[30, 30, 30, 30]</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>[32, 32, 32, 32]</t>
+  </si>
+  <si>
+    <t>54-238</t>
+  </si>
+  <si>
+    <t>141-460</t>
+  </si>
+  <si>
+    <t>11/23</t>
+  </si>
+  <si>
+    <t>[100, 100, 100, 100]</t>
+  </si>
+  <si>
+    <t>01/29</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>02/04</t>
+  </si>
+  <si>
+    <t>[41]</t>
   </si>
 </sst>
 </file>
@@ -163,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +307,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -512,17 +620,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -530,44 +638,56 @@
     <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -581,31 +701,713 @@
         <v>90.4125</v>
       </c>
       <c r="D2" s="14">
-        <v>25569.042137314817</v>
+        <v>25569.04213170139</v>
       </c>
       <c r="E2" s="14">
-        <v>25569.04214753472</v>
+        <v>25569.042148599536</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="8">
+        <v>31.86</v>
+      </c>
+      <c r="N2" s="6">
+        <v>429</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C3" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D3" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E3" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="8">
+        <v>33.73</v>
+      </c>
+      <c r="N3" s="6">
+        <v>225</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C4" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D4" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E4" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8">
+        <v>35.28</v>
+      </c>
+      <c r="N4" s="6">
+        <v>212</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C5" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D5" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E5" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
+        <v>62.95</v>
+      </c>
+      <c r="N5" s="6">
+        <v>254</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C6" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D6" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E6" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8">
+        <v>53.52</v>
+      </c>
+      <c r="N6" s="6">
+        <v>590</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C7" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D7" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E7" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8">
+        <v>39.92</v>
+      </c>
+      <c r="N7" s="6">
+        <v>335</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C8" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D8" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E8" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8">
+        <v>30.53</v>
+      </c>
+      <c r="N8" s="6">
+        <v>610</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C9" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D9" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8">
+        <v>35.64</v>
+      </c>
+      <c r="N9" s="6">
+        <v>249</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C10" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D10" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E10" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <v>33.83</v>
+      </c>
+      <c r="N10" s="6">
+        <v>568</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C11" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D11" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E11" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8">
+        <v>27.29</v>
+      </c>
+      <c r="N11" s="6">
+        <v>228</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C12" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D12" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E12" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8">
+        <v>25.82</v>
+      </c>
+      <c r="N12" s="6">
+        <v>453</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C13" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D13" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E13" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="15">
+        <v>35.18</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
+        <v>24.91625</v>
+      </c>
+      <c r="C14" s="8">
+        <v>89.941109</v>
+      </c>
+      <c r="D14" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E14" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="15">
+        <v>32.66</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24.0958</v>
+      </c>
+      <c r="C15" s="8">
+        <v>90.4125</v>
+      </c>
+      <c r="D15" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E15" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>430</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B16" s="8">
+        <v>23.490938</v>
+      </c>
+      <c r="C16" s="8">
+        <v>89.421135</v>
+      </c>
+      <c r="D16" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E16" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1324</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
+      <c r="B17" s="8">
+        <v>22.7049694444444</v>
+      </c>
+      <c r="C17" s="8">
+        <v>90.3701305555555</v>
+      </c>
+      <c r="D17" s="14">
+        <v>25569.04213170139</v>
+      </c>
+      <c r="E17" s="14">
+        <v>25569.042148599536</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1252</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -618,9 +1420,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -630,10 +1432,10 @@
     <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +1454,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -667,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="7">
-        <v>25569.04213923611</v>
+        <v>25569.042135011576</v>
       </c>
       <c r="E2" s="6">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="F2" s="8">
-        <v>8.249159981388704</v>
+        <v>8.258510109442415</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -690,16 +1492,1189 @@
         <v>8</v>
       </c>
       <c r="D3" s="7">
+        <v>25569.04213923611</v>
+      </c>
+      <c r="E3" s="6">
+        <v>650</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8.249122145093745</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
         <v>25569.042143472223</v>
       </c>
-      <c r="E3" s="6">
-        <v>531</v>
-      </c>
-      <c r="F3" s="8">
-        <v>8.320582361750162</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E4" s="6">
+        <v>1016</v>
+      </c>
+      <c r="F4" s="8">
+        <v>8.320523919408037</v>
+      </c>
+      <c r="G4" s="6">
         <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25569.04214769676</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1381</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8.304685298771954</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25569.042135011576</v>
+      </c>
+      <c r="E6" s="6">
+        <v>285</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8.258510109442415</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25569.04213923611</v>
+      </c>
+      <c r="E7" s="6">
+        <v>650</v>
+      </c>
+      <c r="F7" s="8">
+        <v>8.249122145093745</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25569.042143472223</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1016</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.320523919408037</v>
+      </c>
+      <c r="G8" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25569.04214769676</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1381</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8.304685298771954</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25569.042135011576</v>
+      </c>
+      <c r="E10" s="6">
+        <v>285</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8.258510109442415</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25569.04213923611</v>
+      </c>
+      <c r="E11" s="6">
+        <v>650</v>
+      </c>
+      <c r="F11" s="8">
+        <v>8.249122145093745</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25569.042143472223</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1016</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8.320523919408037</v>
+      </c>
+      <c r="G12" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25569.04214769676</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1381</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8.304685298771954</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>25569.042136875</v>
+      </c>
+      <c r="E14" s="6">
+        <v>446</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5.601084606779181</v>
+      </c>
+      <c r="G14" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25569.042141099537</v>
+      </c>
+      <c r="E15" s="6">
+        <v>811</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5.714017162372091</v>
+      </c>
+      <c r="G15" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25569.042145335647</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1177</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.206264511033568</v>
+      </c>
+      <c r="G16" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25569.042136875</v>
+      </c>
+      <c r="E17" s="6">
+        <v>446</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.601084606779181</v>
+      </c>
+      <c r="G17" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25569.042141099537</v>
+      </c>
+      <c r="E18" s="6">
+        <v>811</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5.714017162372091</v>
+      </c>
+      <c r="G18" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25569.042145335647</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1177</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.206264511033568</v>
+      </c>
+      <c r="G19" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25569.042136875</v>
+      </c>
+      <c r="E20" s="6">
+        <v>446</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.601084606779181</v>
+      </c>
+      <c r="G20" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25569.042141099537</v>
+      </c>
+      <c r="E21" s="6">
+        <v>811</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5.714017162372091</v>
+      </c>
+      <c r="G21" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25569.042145335647</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1177</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.206264511033568</v>
+      </c>
+      <c r="G22" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>25569.042136875</v>
+      </c>
+      <c r="E23" s="6">
+        <v>446</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5.601084606779181</v>
+      </c>
+      <c r="G23" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25569.042141099537</v>
+      </c>
+      <c r="E24" s="6">
+        <v>811</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5.714017162372091</v>
+      </c>
+      <c r="G24" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25569.042145335647</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1177</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.206264511033568</v>
+      </c>
+      <c r="G25" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>25569.042136527776</v>
+      </c>
+      <c r="E26" s="6">
+        <v>416</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2.198760725277861</v>
+      </c>
+      <c r="G26" s="8">
+        <v>324.6295659004462</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25569.042140752314</v>
+      </c>
+      <c r="E27" s="6">
+        <v>781</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3.619064314380449</v>
+      </c>
+      <c r="G27" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>25569.042144988427</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1147</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.494408557860785</v>
+      </c>
+      <c r="G28" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>25569.042136527776</v>
+      </c>
+      <c r="E29" s="6">
+        <v>416</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2.198760725277861</v>
+      </c>
+      <c r="G29" s="8">
+        <v>324.6295659004462</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25569.042140752314</v>
+      </c>
+      <c r="E30" s="6">
+        <v>781</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.619064314380449</v>
+      </c>
+      <c r="G30" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>25569.042144988427</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1147</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.494408557860785</v>
+      </c>
+      <c r="G31" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25569.04213667824</v>
+      </c>
+      <c r="E32" s="6">
+        <v>429</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1.756136236278242</v>
+      </c>
+      <c r="G32" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7">
+        <v>25569.042140902777</v>
+      </c>
+      <c r="E33" s="6">
+        <v>794</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1.404637434746309</v>
+      </c>
+      <c r="G33" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7">
+        <v>25569.04214513889</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1160</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1.774607934116236</v>
+      </c>
+      <c r="G34" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7">
+        <v>25569.04213667824</v>
+      </c>
+      <c r="E35" s="6">
+        <v>429</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.756136236278242</v>
+      </c>
+      <c r="G35" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7">
+        <v>25569.042140902777</v>
+      </c>
+      <c r="E36" s="6">
+        <v>794</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1.404637434746309</v>
+      </c>
+      <c r="G36" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7">
+        <v>25569.04214513889</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1160</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1.774607934116236</v>
+      </c>
+      <c r="G37" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7">
+        <v>25569.04213625</v>
+      </c>
+      <c r="E38" s="6">
+        <v>392</v>
+      </c>
+      <c r="F38" s="8">
+        <v>6.218642363086797</v>
+      </c>
+      <c r="G38" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>25569.042140474536</v>
+      </c>
+      <c r="E39" s="6">
+        <v>757</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2.667275486404149</v>
+      </c>
+      <c r="G39" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>25569.04214471065</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1123</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1.91016486282304</v>
+      </c>
+      <c r="G40" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7">
+        <v>25569.04213625</v>
+      </c>
+      <c r="E41" s="6">
+        <v>392</v>
+      </c>
+      <c r="F41" s="8">
+        <v>6.218642363086797</v>
+      </c>
+      <c r="G41" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>25569.042140474536</v>
+      </c>
+      <c r="E42" s="6">
+        <v>757</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2.667275486404149</v>
+      </c>
+      <c r="G42" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>25569.04214471065</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1123</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1.91016486282304</v>
+      </c>
+      <c r="G43" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7">
+        <v>25569.04213775463</v>
+      </c>
+      <c r="E44" s="6">
+        <v>522</v>
+      </c>
+      <c r="F44" s="8">
+        <v>10.98946021684051</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1169.996582964024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="7">
+        <v>25569.042141979167</v>
+      </c>
+      <c r="E45" s="6">
+        <v>887</v>
+      </c>
+      <c r="F45" s="8">
+        <v>11.02909468512641</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1201.80155453776</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="7">
+        <v>25569.042146215277</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1253</v>
+      </c>
+      <c r="F46" s="8">
+        <v>11.07541676774006</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1162.787457982894</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7">
+        <v>25569.042133229166</v>
+      </c>
+      <c r="E47" s="6">
+        <v>131</v>
+      </c>
+      <c r="F47" s="8">
+        <v>6.989670147640976</v>
+      </c>
+      <c r="G47" s="8">
+        <v>722.8891616148685</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="7">
+        <v>25569.042137453704</v>
+      </c>
+      <c r="E48" s="6">
+        <v>496</v>
+      </c>
+      <c r="F48" s="8">
+        <v>7.015346889556285</v>
+      </c>
+      <c r="G48" s="8">
+        <v>689.1467950874841</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="7">
+        <v>25569.04214167824</v>
+      </c>
+      <c r="E49" s="6">
+        <v>861</v>
+      </c>
+      <c r="F49" s="8">
+        <v>7.04366061705954</v>
+      </c>
+      <c r="G49" s="8">
+        <v>687.9549343529037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="7">
+        <v>25569.04214591435</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1227</v>
+      </c>
+      <c r="F50" s="8">
+        <v>7.082644536901525</v>
+      </c>
+      <c r="G50" s="8">
+        <v>674.8918159371151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="7">
+        <v>25569.04213329861</v>
+      </c>
+      <c r="E51" s="6">
+        <v>137</v>
+      </c>
+      <c r="F51" s="8">
+        <v>6.989670147640976</v>
+      </c>
+      <c r="G51" s="8">
+        <v>696.9330851352745</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="7">
+        <v>25569.04213752315</v>
+      </c>
+      <c r="E52" s="6">
+        <v>502</v>
+      </c>
+      <c r="F52" s="8">
+        <v>7.015211162951598</v>
+      </c>
+      <c r="G52" s="8">
+        <v>698.2336028814002</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="7">
+        <v>25569.042141747686</v>
+      </c>
+      <c r="E53" s="6">
+        <v>867</v>
+      </c>
+      <c r="F53" s="8">
+        <v>7.047831916368094</v>
+      </c>
+      <c r="G53" s="8">
+        <v>665.1754650251687</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="6">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="7">
+        <v>25569.042145983796</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1233</v>
+      </c>
+      <c r="F54" s="8">
+        <v>7.08299744589133</v>
+      </c>
+      <c r="G54" s="8">
+        <v>674.0995413255899</v>
       </c>
     </row>
   </sheetData>

--- a/heliostrome/jip_project/results/test_results.xlsx
+++ b/heliostrome/jip_project/results/test_results.xlsx
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40179</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C3" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>40179</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C4" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>40179</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C5" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>40179</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C6" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>40179</v>
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C7" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>40179</v>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C8" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>40179</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C9" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>40179</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C10" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>40179</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C11" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>40179</v>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C12" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>40179</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C13" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>40179</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>35.175</v>
+        <v>35.18</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.91625</v>
+        <v>24.92</v>
       </c>
       <c r="C14" t="n">
-        <v>89.941109</v>
+        <v>89.94</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>40179</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>32.655</v>
+        <v>32.66</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.0958</v>
+        <v>24.1</v>
       </c>
       <c r="C15" t="n">
-        <v>90.41249999999999</v>
+        <v>90.41</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>40179</v>
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.490938</v>
+        <v>23.49</v>
       </c>
       <c r="C16" t="n">
-        <v>89.42113500000001</v>
+        <v>89.42</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>40179</v>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.7049694444444</v>
+        <v>22.7</v>
       </c>
       <c r="C17" t="n">
-        <v>90.37013055555551</v>
+        <v>90.37</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>40179</v>
@@ -1543,7 +1543,7 @@
         <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>8.258510109442415</v>
+        <v>8.252035301011807</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>8.249122145093745</v>
+        <v>8.265331847337418</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>1016</v>
       </c>
       <c r="F4" t="n">
-        <v>8.320523919408037</v>
+        <v>8.331373152267158</v>
       </c>
       <c r="G4" t="n">
         <v>25</v>
@@ -1624,7 +1624,7 @@
         <v>1381</v>
       </c>
       <c r="F5" t="n">
-        <v>8.304685298771954</v>
+        <v>8.329031300172565</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>8.258510109442415</v>
+        <v>8.252035301011807</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>650</v>
       </c>
       <c r="F7" t="n">
-        <v>8.249122145093745</v>
+        <v>8.265331847337418</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>1016</v>
       </c>
       <c r="F8" t="n">
-        <v>8.320523919408037</v>
+        <v>8.331373152267158</v>
       </c>
       <c r="G8" t="n">
         <v>25</v>
@@ -1732,7 +1732,7 @@
         <v>1381</v>
       </c>
       <c r="F9" t="n">
-        <v>8.304685298771954</v>
+        <v>8.329031300172565</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>285</v>
       </c>
       <c r="F10" t="n">
-        <v>8.258510109442415</v>
+        <v>8.252035301011807</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>650</v>
       </c>
       <c r="F11" t="n">
-        <v>8.249122145093745</v>
+        <v>8.265331847337418</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>1016</v>
       </c>
       <c r="F12" t="n">
-        <v>8.320523919408037</v>
+        <v>8.331373152267158</v>
       </c>
       <c r="G12" t="n">
         <v>25</v>
@@ -1840,7 +1840,7 @@
         <v>1381</v>
       </c>
       <c r="F13" t="n">
-        <v>8.304685298771954</v>
+        <v>8.329031300172565</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>446</v>
       </c>
       <c r="F14" t="n">
-        <v>5.601084606779181</v>
+        <v>5.799594592429121</v>
       </c>
       <c r="G14" t="n">
         <v>625</v>
@@ -1894,7 +1894,7 @@
         <v>811</v>
       </c>
       <c r="F15" t="n">
-        <v>5.714017162372091</v>
+        <v>5.724272415628232</v>
       </c>
       <c r="G15" t="n">
         <v>600</v>
@@ -1921,10 +1921,10 @@
         <v>1177</v>
       </c>
       <c r="F16" t="n">
-        <v>5.206264511033568</v>
+        <v>5.425883008718891</v>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17">
@@ -1948,7 +1948,7 @@
         <v>446</v>
       </c>
       <c r="F17" t="n">
-        <v>5.601084606779181</v>
+        <v>5.799594592429121</v>
       </c>
       <c r="G17" t="n">
         <v>625</v>
@@ -1975,7 +1975,7 @@
         <v>811</v>
       </c>
       <c r="F18" t="n">
-        <v>5.714017162372091</v>
+        <v>5.724272415628232</v>
       </c>
       <c r="G18" t="n">
         <v>600</v>
@@ -2002,10 +2002,10 @@
         <v>1177</v>
       </c>
       <c r="F19" t="n">
-        <v>5.206264511033568</v>
+        <v>5.425883008718891</v>
       </c>
       <c r="G19" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20">
@@ -2029,7 +2029,7 @@
         <v>446</v>
       </c>
       <c r="F20" t="n">
-        <v>5.601084606779181</v>
+        <v>5.799594592429121</v>
       </c>
       <c r="G20" t="n">
         <v>625</v>
@@ -2056,7 +2056,7 @@
         <v>811</v>
       </c>
       <c r="F21" t="n">
-        <v>5.714017162372091</v>
+        <v>5.724272415628232</v>
       </c>
       <c r="G21" t="n">
         <v>600</v>
@@ -2083,10 +2083,10 @@
         <v>1177</v>
       </c>
       <c r="F22" t="n">
-        <v>5.206264511033568</v>
+        <v>5.425883008718891</v>
       </c>
       <c r="G22" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23">
@@ -2110,7 +2110,7 @@
         <v>446</v>
       </c>
       <c r="F23" t="n">
-        <v>5.601084606779181</v>
+        <v>5.799594592429121</v>
       </c>
       <c r="G23" t="n">
         <v>625</v>
@@ -2137,7 +2137,7 @@
         <v>811</v>
       </c>
       <c r="F24" t="n">
-        <v>5.714017162372091</v>
+        <v>5.724272415628232</v>
       </c>
       <c r="G24" t="n">
         <v>600</v>
@@ -2164,10 +2164,10 @@
         <v>1177</v>
       </c>
       <c r="F25" t="n">
-        <v>5.206264511033568</v>
+        <v>5.425883008718891</v>
       </c>
       <c r="G25" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26">
@@ -2191,10 +2191,10 @@
         <v>416</v>
       </c>
       <c r="F26" t="n">
-        <v>2.198760725277861</v>
+        <v>2.199050389369717</v>
       </c>
       <c r="G26" t="n">
-        <v>324.6295659004462</v>
+        <v>324.6294128218001</v>
       </c>
     </row>
     <row r="27">
@@ -2218,7 +2218,7 @@
         <v>781</v>
       </c>
       <c r="F27" t="n">
-        <v>3.619064314380449</v>
+        <v>3.619606235631393</v>
       </c>
       <c r="G27" t="n">
         <v>350</v>
@@ -2245,7 +2245,7 @@
         <v>1147</v>
       </c>
       <c r="F28" t="n">
-        <v>1.494408557860785</v>
+        <v>1.494692662904003</v>
       </c>
       <c r="G28" t="n">
         <v>275</v>
@@ -2272,10 +2272,10 @@
         <v>416</v>
       </c>
       <c r="F29" t="n">
-        <v>2.198760725277861</v>
+        <v>2.199050389369717</v>
       </c>
       <c r="G29" t="n">
-        <v>324.6295659004462</v>
+        <v>324.6294128218001</v>
       </c>
     </row>
     <row r="30">
@@ -2299,7 +2299,7 @@
         <v>781</v>
       </c>
       <c r="F30" t="n">
-        <v>3.619064314380449</v>
+        <v>3.619606235631393</v>
       </c>
       <c r="G30" t="n">
         <v>350</v>
@@ -2326,7 +2326,7 @@
         <v>1147</v>
       </c>
       <c r="F31" t="n">
-        <v>1.494408557860785</v>
+        <v>1.494692662904003</v>
       </c>
       <c r="G31" t="n">
         <v>275</v>
@@ -2353,7 +2353,7 @@
         <v>429</v>
       </c>
       <c r="F32" t="n">
-        <v>1.756136236278242</v>
+        <v>1.75629891650748</v>
       </c>
       <c r="G32" t="n">
         <v>325</v>
@@ -2380,7 +2380,7 @@
         <v>794</v>
       </c>
       <c r="F33" t="n">
-        <v>1.404637434746309</v>
+        <v>1.404878119678743</v>
       </c>
       <c r="G33" t="n">
         <v>275</v>
@@ -2407,7 +2407,7 @@
         <v>1160</v>
       </c>
       <c r="F34" t="n">
-        <v>1.774607934116236</v>
+        <v>1.775297960730243</v>
       </c>
       <c r="G34" t="n">
         <v>300</v>
@@ -2434,7 +2434,7 @@
         <v>429</v>
       </c>
       <c r="F35" t="n">
-        <v>1.756136236278242</v>
+        <v>1.75629891650748</v>
       </c>
       <c r="G35" t="n">
         <v>325</v>
@@ -2461,7 +2461,7 @@
         <v>794</v>
       </c>
       <c r="F36" t="n">
-        <v>1.404637434746309</v>
+        <v>1.404878119678743</v>
       </c>
       <c r="G36" t="n">
         <v>275</v>
@@ -2488,7 +2488,7 @@
         <v>1160</v>
       </c>
       <c r="F37" t="n">
-        <v>1.774607934116236</v>
+        <v>1.775297960730243</v>
       </c>
       <c r="G37" t="n">
         <v>300</v>
@@ -2515,7 +2515,7 @@
         <v>392</v>
       </c>
       <c r="F38" t="n">
-        <v>6.218642363086797</v>
+        <v>6.219102643765745</v>
       </c>
       <c r="G38" t="n">
         <v>375</v>
@@ -2542,7 +2542,7 @@
         <v>757</v>
       </c>
       <c r="F39" t="n">
-        <v>2.667275486404149</v>
+        <v>2.667879848391237</v>
       </c>
       <c r="G39" t="n">
         <v>275</v>
@@ -2569,7 +2569,7 @@
         <v>1123</v>
       </c>
       <c r="F40" t="n">
-        <v>1.91016486282304</v>
+        <v>1.910364104782561</v>
       </c>
       <c r="G40" t="n">
         <v>275</v>
@@ -2596,7 +2596,7 @@
         <v>392</v>
       </c>
       <c r="F41" t="n">
-        <v>6.218642363086797</v>
+        <v>6.219102643765745</v>
       </c>
       <c r="G41" t="n">
         <v>375</v>
@@ -2623,7 +2623,7 @@
         <v>757</v>
       </c>
       <c r="F42" t="n">
-        <v>2.667275486404149</v>
+        <v>2.667879848391237</v>
       </c>
       <c r="G42" t="n">
         <v>275</v>
@@ -2650,7 +2650,7 @@
         <v>1123</v>
       </c>
       <c r="F43" t="n">
-        <v>1.91016486282304</v>
+        <v>1.910364104782561</v>
       </c>
       <c r="G43" t="n">
         <v>275</v>
@@ -2680,7 +2680,7 @@
         <v>10.98946021684051</v>
       </c>
       <c r="G44" t="n">
-        <v>1169.996582964024</v>
+        <v>1166.947191939173</v>
       </c>
     </row>
     <row r="45">
@@ -2707,7 +2707,7 @@
         <v>11.02909468512641</v>
       </c>
       <c r="G45" t="n">
-        <v>1201.80155453776</v>
+        <v>1200.390170187957</v>
       </c>
     </row>
     <row r="46">
@@ -2734,7 +2734,7 @@
         <v>11.07541676774006</v>
       </c>
       <c r="G46" t="n">
-        <v>1162.787457982894</v>
+        <v>1150.102147786943</v>
       </c>
     </row>
     <row r="47">
@@ -2761,7 +2761,7 @@
         <v>6.989670147640976</v>
       </c>
       <c r="G47" t="n">
-        <v>722.8891616148685</v>
+        <v>722.8977391671099</v>
       </c>
     </row>
     <row r="48">
@@ -2785,10 +2785,10 @@
         <v>496</v>
       </c>
       <c r="F48" t="n">
-        <v>7.015346889556285</v>
+        <v>7.015346729218368</v>
       </c>
       <c r="G48" t="n">
-        <v>689.1467950874841</v>
+        <v>689.147681439479</v>
       </c>
     </row>
     <row r="49">
@@ -2812,10 +2812,10 @@
         <v>861</v>
       </c>
       <c r="F49" t="n">
-        <v>7.04366061705954</v>
+        <v>7.043660632884428</v>
       </c>
       <c r="G49" t="n">
-        <v>687.9549343529037</v>
+        <v>687.9765759548468</v>
       </c>
     </row>
     <row r="50">
@@ -2842,7 +2842,7 @@
         <v>7.082644536901525</v>
       </c>
       <c r="G50" t="n">
-        <v>674.8918159371151</v>
+        <v>674.9028563351791</v>
       </c>
     </row>
     <row r="51">
@@ -2869,7 +2869,7 @@
         <v>6.989670147640976</v>
       </c>
       <c r="G51" t="n">
-        <v>696.9330851352745</v>
+        <v>696.9296587599061</v>
       </c>
     </row>
     <row r="52">
@@ -2893,10 +2893,10 @@
         <v>502</v>
       </c>
       <c r="F52" t="n">
-        <v>7.015211162951598</v>
+        <v>7.015211013062076</v>
       </c>
       <c r="G52" t="n">
-        <v>698.2336028814002</v>
+        <v>698.2311625269382</v>
       </c>
     </row>
     <row r="53">
@@ -2920,10 +2920,10 @@
         <v>867</v>
       </c>
       <c r="F53" t="n">
-        <v>7.047831916368094</v>
+        <v>7.047831954663301</v>
       </c>
       <c r="G53" t="n">
-        <v>665.1754650251687</v>
+        <v>665.171884249018</v>
       </c>
     </row>
     <row r="54">
@@ -2947,10 +2947,10 @@
         <v>1233</v>
       </c>
       <c r="F54" t="n">
-        <v>7.08299744589133</v>
+        <v>7.08299744934908</v>
       </c>
       <c r="G54" t="n">
-        <v>674.0995413255899</v>
+        <v>674.0966184177332</v>
       </c>
     </row>
   </sheetData>
